--- a/Aula 2/Requisitos.xlsx
+++ b/Aula 2/Requisitos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25027"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C402D03D-5157-4C2C-BE72-6F117FD8AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA521116-B20D-405B-8BD0-395B41BB0D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>Requisitos</t>
   </si>
@@ -46,36 +46,66 @@
     <t>Organização</t>
   </si>
   <si>
+    <t>Notícias só podem ser editadas/atualizadas pelo responsável.</t>
+  </si>
+  <si>
+    <t>Publicação</t>
+  </si>
+  <si>
+    <t>Controlo</t>
+  </si>
+  <si>
     <t>Notícias devem ser registadas com um único responsável definido</t>
   </si>
   <si>
-    <t>Publicação</t>
-  </si>
-  <si>
     <t>Notícias devem ter um identificador único, título, subtítulo, categoria, corpo, data de criação, data de última atualização.</t>
   </si>
   <si>
     <t>Notícias podem ter uma ou mais imagens/media associada</t>
   </si>
   <si>
-    <t>Notícias só podem ser editadas/atualizadas pelo responsável.</t>
-  </si>
-  <si>
-    <t>Controlo</t>
-  </si>
-  <si>
     <t>Notícias podem ser definidas como Notícia de Destaque</t>
   </si>
   <si>
     <t>Notícias podem ser caraterizadas por 3 estados: Em Rascunho, Publicação e Arquivada</t>
   </si>
   <si>
+    <t>Notícias podem ser Premium  (Acessíveis após pagamento) - Preço previamente definido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicação </t>
+  </si>
+  <si>
+    <t>Jornalistas devem ter um identificador único, nome, e-mail, cargo, categoria a que pertence</t>
+  </si>
+  <si>
+    <t>Administração</t>
+  </si>
+  <si>
+    <t>Leitor deve ter um identificador único, nome, idade, género, email, lista de notícias guardadas para ler, lista de preferências (categorias), histórico de visualização de notícias e comentários, subscrito à newsletter</t>
+  </si>
+  <si>
+    <t>Leitores</t>
+  </si>
+  <si>
+    <t>Um Comentário só pode existir dentro de uma Notícia, deve ter um identificador único, corpo, data de publicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conteúdo media de uma Notícia pode ser descrita através de um identificador único,o tipo de ficheiro , nome do ficheiro, descrição, categoria </t>
+  </si>
+  <si>
+    <t>Repositório Multimédia</t>
+  </si>
+  <si>
+    <t>Os Tipos de Media podem ser imagem, vídeo, gifs, documentos</t>
+  </si>
+  <si>
+    <t>Para facilitar a pesquisa de imagens para as notícias por parte dos jornalistas, estas pode ter tags adicionadas.</t>
+  </si>
+  <si>
     <t>O Corpo Administrativo/Editorial pode visualizar o histórico de edição de Notícias</t>
   </si>
   <si>
-    <t>Administração</t>
-  </si>
-  <si>
     <t>Manipulação</t>
   </si>
   <si>
@@ -94,12 +124,6 @@
     <t>Listar Notícias em Rascunho</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicação </t>
-  </si>
-  <si>
-    <t>Notícias podem ser Premium  (Acessíveis após pagamento) - Preço previamente definido.</t>
-  </si>
-  <si>
     <t>Consultar a Notícia mais visualizada do Dia</t>
   </si>
   <si>
@@ -118,27 +142,15 @@
     <t>Listar e Gerir Notícias (Inserir, Apagar, Atualizar uma Notícia)</t>
   </si>
   <si>
-    <t>Jornalistas devem ter um identificador único, nome, e-mail, cargo, categoria a que pertence</t>
-  </si>
-  <si>
     <t>Listar e Gerir Jornalistas (Inserir, Apagar, Atualizar um Jornalista)</t>
   </si>
   <si>
     <t xml:space="preserve">Listar e Gerir Cargos Disponíveis </t>
   </si>
   <si>
-    <t>Leitor deve ter um identificador único, nome, idade, género, email, lista de notícias guardadas para ler, lista de preferências (categorias), histórico de visualização de notícias e comentários, subscrito à newsletter</t>
-  </si>
-  <si>
-    <t>Leitores</t>
-  </si>
-  <si>
     <t>Leitor pode comentar Notícias</t>
   </si>
   <si>
-    <t>Um Comentário só pode existir dentro de uma Notícia, deve ter um identificador único, corpo, data de publicação</t>
-  </si>
-  <si>
     <t>Comentário pode ser em resposta a outro comentário</t>
   </si>
   <si>
@@ -158,6 +170,21 @@
   </si>
   <si>
     <t>Mecanismos para garantir a recuperação de dados apagados indevidamente</t>
+  </si>
+  <si>
+    <t>As Categorias dos Repositórios de imagem devem ser únicas e somente geridas por administrações ou utilizadores com um cargo de gestor multimédia</t>
+  </si>
+  <si>
+    <t>Os conteúdos só podem ser adicionados por utilizadores com o cargo de gestor de multimédia</t>
+  </si>
+  <si>
+    <t>Cada Categoria/Secção pode ter um corpo editorial constituído por Editor-Chefe, Editor-Associado, Jornalistas e data de início</t>
+  </si>
+  <si>
+    <t>Corpo Editorial</t>
+  </si>
+  <si>
+    <t>Os Corpos Editoriais podem ser visualizados e geridos por Editor-Chefe e Administração</t>
   </si>
 </sst>
 </file>
@@ -258,8 +285,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{230E7341-9B70-422B-A114-5D9E64ECB9C1}" name="Table1" displayName="Table1" ref="B2:F34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F34" xr:uid="{230E7341-9B70-422B-A114-5D9E64ECB9C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{230E7341-9B70-422B-A114-5D9E64ECB9C1}" name="Table1" displayName="Table1" ref="B2:F41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F41" xr:uid="{230E7341-9B70-422B-A114-5D9E64ECB9C1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F40">
+    <sortCondition ref="F2:F40"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F2186FB-5BCB-4272-8F92-3C24942B5004}" name="ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9972FE75-3731-4758-A6D9-3B114A673964}" name="Data/Hora" dataDxfId="3"/>
@@ -568,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F34"/>
+  <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="34.5" customHeight="1"/>
@@ -609,7 +639,7 @@
     </row>
     <row r="3" spans="2:6" ht="34.5" customHeight="1">
       <c r="B3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>44616</v>
@@ -621,18 +651,18 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>44616</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -643,13 +673,13 @@
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1">
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>44616</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -660,19 +690,19 @@
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1">
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>44616</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" customHeight="1">
@@ -711,7 +741,7 @@
     </row>
     <row r="9" spans="2:6" ht="34.5" customHeight="1">
       <c r="B9" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>44616</v>
@@ -723,29 +753,29 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" customHeight="1">
       <c r="B10" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>44616</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1">
       <c r="B11" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>44616</v>
@@ -754,72 +784,72 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" customHeight="1">
       <c r="B12" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>44616</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="34.5" customHeight="1">
       <c r="B13" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
-        <v>44616</v>
+        <v>44675</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="34.5" customHeight="1">
       <c r="B14" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>44616</v>
+        <v>44675</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="34.5" customHeight="1">
       <c r="B15" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
-        <v>44616</v>
+        <v>44675</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
@@ -830,325 +860,444 @@
     </row>
     <row r="16" spans="2:6" ht="34.5" customHeight="1">
       <c r="B16" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>44616</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="34.5" customHeight="1">
       <c r="B17" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>44616</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="34.5" customHeight="1">
       <c r="B18" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>44616</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1">
       <c r="B19" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>44616</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="34.5" customHeight="1">
       <c r="B20" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
         <v>44616</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="34.5" customHeight="1">
       <c r="B21" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>44616</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="34.5" customHeight="1">
       <c r="B22" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>44616</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="34.5" customHeight="1">
       <c r="B23" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>44616</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="34.5" customHeight="1">
       <c r="B24" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
         <v>44616</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1">
       <c r="B25" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>44616</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="34.5" customHeight="1">
       <c r="B26" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>44616</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="34.5" customHeight="1">
       <c r="B27" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>44616</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="34.5" customHeight="1">
       <c r="B28" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>44616</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="34.5" customHeight="1">
       <c r="B29" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>44675</v>
+        <v>44616</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="34.5" customHeight="1">
       <c r="B30" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2">
-        <v>44675</v>
+        <v>44616</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="34.5" customHeight="1">
       <c r="B31" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>44675</v>
+        <v>44616</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="34.5" customHeight="1">
       <c r="B32" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2">
         <v>44675</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="34.5" customHeight="1">
       <c r="B33" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <v>44675</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="34.5" customHeight="1">
       <c r="B34" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2">
         <v>44675</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B35" s="1">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B36" s="1">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
